--- a/CAM_OUTPUTS/BOM/I2C_Jog_Controller_CAM_OUTPUT_A4.xlsx
+++ b/CAM_OUTPUTS/BOM/I2C_Jog_Controller_CAM_OUTPUT_A4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28635" windowHeight="17115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22110" windowHeight="14805"/>
   </bookViews>
   <sheets>
     <sheet name="I2C_Jog_Controller_CAM_OUTPUT_A" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
     <t>Intelligent Control LED Integrated Light Source, 3.5 to 5.3 V, -25 to 80 degC, 4-Pin SMD, RoHS, Tape and Reel</t>
   </si>
   <si>
-    <t>CYC_U7, FHL_U7, HLT_U7, HME_U7, SPN_U7, U1, U5</t>
+    <t>CYC_U7, FHL_U7, HLT_U7, HME_U7, SPN_U7, U1, U2, U3, U4, U5</t>
   </si>
   <si>
     <t>ADA-RGB-1655_V</t>
@@ -748,7 +748,7 @@
         <v>32</v>
       </c>
       <c r="F7" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">

--- a/CAM_OUTPUTS/BOM/I2C_Jog_Controller_CAM_OUTPUT_A4.xlsx
+++ b/CAM_OUTPUTS/BOM/I2C_Jog_Controller_CAM_OUTPUT_A4.xlsx
@@ -194,7 +194,7 @@
     <t>三极管</t>
   </si>
   <si>
-    <t>Q1</t>
+    <t>Q1, Q2</t>
   </si>
   <si>
     <t>SOT-23(SOT-23-3)</t>
@@ -848,7 +848,7 @@
         <v>57</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">

--- a/CAM_OUTPUTS/BOM/I2C_Jog_Controller_CAM_OUTPUT_A4.xlsx
+++ b/CAM_OUTPUTS/BOM/I2C_Jog_Controller_CAM_OUTPUT_A4.xlsx
@@ -1,33 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repo\I2C_Jog_Controller\PCBA\Project Outputs for I2C_Jog_Controller\I2C_Jog_Controller_UPLOAD_GERBERS_A4\BOM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22110" windowHeight="14805"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="I2C_Jog_Controller_CAM_OUTPUT_A" sheetId="1" r:id="rId1"/>
+    <sheet name="I2C_Jog_Controller_CAM_OUTPUT_A" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">I2C_Jog_Controller_CAM_OUTPUT_A!$1:$1</definedName>
-  </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
   <si>
     <t>Comment</t>
   </si>
@@ -116,7 +100,7 @@
     <t>WS2812B-B/W</t>
   </si>
   <si>
-    <t>Intelligent Control LED Integrated Light Source, 3.5 to 5.3 V, -25 to 80 degC, 4-Pin SMD, RoHS, Tape and Reel</t>
+    <t>5050(mm) Light Emitting Diodes (LED) ROHS</t>
   </si>
   <si>
     <t>CYC_U7, FHL_U7, HLT_U7, HME_U7, SPN_U7, U1, U2, U3, U4, U5</t>
@@ -125,7 +109,7 @@
     <t>ADA-RGB-1655_V</t>
   </si>
   <si>
-    <t>C2761795</t>
+    <t>C2874885</t>
   </si>
   <si>
     <t>NE555DR</t>
@@ -263,28 +247,33 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -297,61 +286,75 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office Theme">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="5B9BD5"/>
@@ -372,85 +375,25 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office Theme">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office Theme">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -459,76 +402,66 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -539,420 +472,1287 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="1" max="4" width="19.6719" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1719" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6719" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="13.55" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" ht="13.55" customHeight="1">
+      <c r="A11" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" ht="13.55" customHeight="1">
+      <c r="A12" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" ht="13.55" customHeight="1">
+      <c r="A13" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" ht="13.55" customHeight="1">
+      <c r="A14" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" ht="13.55" customHeight="1">
+      <c r="A15" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" ht="13.55" customHeight="1">
+      <c r="A16" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" ht="13.55" customHeight="1">
+      <c r="A17" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="3">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>